--- a/medicine/Enfance/Fabien_Clavel/Fabien_Clavel.xlsx
+++ b/medicine/Enfance/Fabien_Clavel/Fabien_Clavel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Fabien Clavel, né en 1978 à Paris, est un auteur français de romans et de jeux de rôle.
 </t>
@@ -511,14 +523,16 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fabien Clavel est né à Paris en 1978. Il est le frère du réalisateur Benjamin Clavel[1]. Après avoir vécu à Pierrefonds (Oise)[2], il a suivi des études de lettres classiques à Paris.
-Tout en collaborant à divers jeux de rôle et au magazine Casus Belli, il publie, en 2002, aux éditions Mnémos, une série de romans inspirée du jeu Nephilim[3], avant de se consacrer à ses propres univers.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fabien Clavel est né à Paris en 1978. Il est le frère du réalisateur Benjamin Clavel. Après avoir vécu à Pierrefonds (Oise), il a suivi des études de lettres classiques à Paris.
+Tout en collaborant à divers jeux de rôle et au magazine Casus Belli, il publie, en 2002, aux éditions Mnémos, une série de romans inspirée du jeu Nephilim, avant de se consacrer à ses propres univers.
 Parallèlement, en 2007, il se lance dans la littérature jeunesse aux éditions Mango, à la fois en fantasy et en science-fiction. 
 Sa série La Dernière Odyssée a été récompensée par deux prix.
 Après avoir vécu en Hongrie entre 2007 et 2011, où il a enseigné le français et le latin au lycée français de Budapest, il est revenu en France, où il donne des cours de français, de latin et de littérature et société au lycée Julie-Victoire Daubié à Argenteuil jusqu'en 2019.
-Il a été juré du prix Bob-Morane de 2015 à 2016[4]. Il a également été contributeur, avec Isabelle Périer, de la chronique « Antiquité et imaginaire » pour le site La Vie des Classiques[5].
+Il a été juré du prix Bob-Morane de 2015 à 2016. Il a également été contributeur, avec Isabelle Périer, de la chronique « Antiquité et imaginaire » pour le site La Vie des Classiques.
 </t>
         </is>
       </c>
